--- a/src/ModelWithOptimization.xlsx
+++ b/src/ModelWithOptimization.xlsx
@@ -832,11 +832,11 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" cm="1">
-        <f t="array" ref="B1">[4]!syClock(,25)</f>
+        <f t="array" ref="B1">syClock(,25)</f>
         <v>25</v>
       </c>
       <c r="G1" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="G1" ca="1">[4]!syOutcome(B11,B1,5,,1)</f>
+        <f t="array" aca="1" ref="G1" ca="1">syOutcome(B11,B1,5,,1)</f>
         <v>{{B11}}</v>
       </c>
       <c r="K1" s="2"/>
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" cm="1">
-        <f t="array" aca="1" ref="B2" ca="1">[4]!syRandomDiscrete(L2:L6,M2:M6)</f>
+        <f t="array" aca="1" ref="B2" ca="1">syRandomDiscrete(L2:L6,M2:M6)</f>
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -876,7 +876,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" cm="1">
-        <f t="array" aca="1" ref="B3" ca="1">[4]!syRandomDiscrete(L3:L5,N3:N5)</f>
+        <f t="array" aca="1" ref="B3" ca="1">syRandomDiscrete(L3:L5,N3:N5)</f>
         <v>1</v>
       </c>
       <c r="C3" s="3"/>
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" cm="1">
-        <f t="array" aca="1" ref="B4" ca="1">[4]!syStock(0,0,"Delivery",B2,11,B1,0,11)</f>
+        <f t="array" aca="1" ref="B4" ca="1">syStock(0,0,"Delivery",B2,11,B1,0,11)</f>
         <v>0</v>
       </c>
       <c r="G4"/>
@@ -919,14 +919,14 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" cm="1">
-        <f t="array" ref="B5">[4]!syScheduler(1/C5,1,B1)</f>
+        <f t="array" ref="B5">syScheduler(1/C5,1,B1)</f>
         <v>0</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="str" cm="1">
-        <f t="array" ref="D5">[4]!syExposeVariableCells(C5)</f>
+        <f t="array" ref="D5">syExposeVariableCells(C5)</f>
         <v>[[C5]]</v>
       </c>
       <c r="G5"/>
@@ -965,7 +965,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" cm="1">
-        <f t="array" aca="1" ref="B7" ca="1">[4]!syMaterialDelay(B6*B5,B3,B1)</f>
+        <f t="array" aca="1" ref="B7" ca="1">syMaterialDelay(B6*B5,B3,B1)</f>
         <v>0</v>
       </c>
       <c r="G7"/>
@@ -977,7 +977,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" cm="1">
-        <f t="array" aca="1" ref="B8" ca="1">[4]!syLoop("Delivery",B7)</f>
+        <f t="array" aca="1" ref="B8" ca="1">syLoop("Delivery",B7)</f>
         <v>0</v>
       </c>
       <c r="G8"/>
@@ -989,11 +989,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" cm="1">
-        <f t="array" aca="1" ref="B9" ca="1">[4]!syState(0,IF(B4=0,B2,0),0,B1)</f>
+        <f t="array" aca="1" ref="B9" ca="1">syState(0,IF(B4=0,B2,0),0,B1)</f>
         <v>0</v>
       </c>
       <c r="C9" s="1" cm="1">
-        <f t="array" aca="1" ref="C9" ca="1">[4]!syStatistic(B9,B1)</f>
+        <f t="array" aca="1" ref="C9" ca="1">syStatistic(B9,B1)</f>
         <v>0</v>
       </c>
       <c r="G9"/>
@@ -1005,11 +1005,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" cm="1">
-        <f t="array" ref="B10">[4]!syState(0,B5,0,B1)</f>
+        <f t="array" ref="B10">syState(0,B5,0,B1)</f>
         <v>6</v>
       </c>
       <c r="C10" s="1" cm="1">
-        <f t="array" ref="C10">[4]!syStatistic(B10,B1)</f>
+        <f t="array" ref="C10">syStatistic(B10,B1)</f>
         <v>6</v>
       </c>
       <c r="K10" s="2"/>
@@ -1023,33 +1023,33 @@
         <v>6</v>
       </c>
       <c r="C11" s="5" cm="1">
-        <f t="array" aca="1" ref="C11" ca="1">[4]!syStatistic(B11,B1)</f>
+        <f t="array" aca="1" ref="C11" ca="1">syStatistic(B11,B1)</f>
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="str" cm="1">
-        <f t="array" ref="A19">[4]!syOutcome(B1,B1)</f>
+        <f t="array" ref="A19">syOutcome(B1,B1)</f>
         <v>{{B1}}</v>
       </c>
       <c r="B19" s="3" t="str" cm="1">
-        <f t="array" aca="1" ref="B19" ca="1">[4]!syOutcome(B4,B1)</f>
+        <f t="array" aca="1" ref="B19" ca="1">syOutcome(B4,B1)</f>
         <v>{{B4}}</v>
       </c>
       <c r="C19" s="3" t="str" cm="1">
-        <f t="array" aca="1" ref="C19" ca="1">[4]!syOutcome(B2,B1)</f>
+        <f t="array" aca="1" ref="C19" ca="1">syOutcome(B2,B1)</f>
         <v>{{B2}}</v>
       </c>
       <c r="D19" s="3" t="str" cm="1">
-        <f t="array" ref="D19">[4]!syOutcome(B5,B1)</f>
+        <f t="array" ref="D19">syOutcome(B5,B1)</f>
         <v>{{B5}}</v>
       </c>
       <c r="E19" s="3" t="str" cm="1">
-        <f t="array" aca="1" ref="E19" ca="1">[4]!syOutcome(B3,B1)</f>
+        <f t="array" aca="1" ref="E19" ca="1">syOutcome(B3,B1)</f>
         <v>{{B3}}</v>
       </c>
       <c r="F19" s="3" t="str" cm="1">
-        <f t="array" aca="1" ref="F19" ca="1">[4]!syOutcome(B7,B1)</f>
+        <f t="array" aca="1" ref="F19" ca="1">syOutcome(B7,B1)</f>
         <v>{{B7}}</v>
       </c>
       <c r="G19" s="3"/>
